--- a/log/测试结果.xlsx
+++ b/log/测试结果.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="170">
   <si>
     <t>事件序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,10 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试程序抛异常时间间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>60s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,6 +628,57 @@
   </si>
   <si>
     <t>48.2s-105.7s /次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5小时+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100ms</t>
+  </si>
+  <si>
+    <t>34.6s-93.5s /次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被测程序数据无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架未获取到first_FP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ms-330ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 函数调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试程序运行时长或抛异常时间间隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -796,11 +843,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -862,6 +979,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -892,47 +1021,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3579,7 +3735,7 @@
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>53</v>
       </c>
       <c r="B4">
@@ -3613,7 +3769,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5">
         <v>300</v>
       </c>
@@ -3645,7 +3801,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="26"/>
       <c r="B6">
         <v>750</v>
       </c>
@@ -3689,7 +3845,7 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B9">
@@ -3723,7 +3879,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="27"/>
       <c r="B10">
         <v>1500</v>
       </c>
@@ -3755,7 +3911,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="27"/>
       <c r="B11">
         <v>3000</v>
       </c>
@@ -3801,7 +3957,7 @@
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="26" t="s">
         <v>60</v>
       </c>
       <c r="B14">
@@ -3835,7 +3991,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="26"/>
       <c r="B15">
         <v>3000</v>
       </c>
@@ -3867,7 +4023,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
+      <c r="A16" s="26"/>
       <c r="B16">
         <v>15000</v>
       </c>
@@ -3899,7 +4055,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="26"/>
       <c r="B17">
         <v>30000</v>
       </c>
@@ -3937,7 +4093,7 @@
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B19">
@@ -3970,7 +4126,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="28"/>
       <c r="B20">
         <v>3000</v>
       </c>
@@ -4002,7 +4158,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21">
         <v>7500</v>
       </c>
@@ -4034,7 +4190,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="28"/>
       <c r="B22">
         <v>15000</v>
       </c>
@@ -4066,7 +4222,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="28"/>
       <c r="B23">
         <v>30000</v>
       </c>
@@ -4132,18 +4288,18 @@
       <c r="A1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
@@ -4152,14 +4308,14 @@
       <c r="C2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="11" t="s">
         <v>78</v>
       </c>
@@ -4310,10 +4466,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:O9"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4322,617 +4478,671 @@
     <col min="6" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="38" t="s">
+    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+    </row>
+    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36">
+        <v>100</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="X1" s="38" t="s">
+      <c r="F3" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="X3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="24">
+        <v>0</v>
+      </c>
+      <c r="X4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="D5" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="24">
+        <v>0</v>
+      </c>
+      <c r="X5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="M6" s="39"/>
+      <c r="N6" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="36"/>
+      <c r="P6" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="U6" s="40"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="24">
+        <v>0</v>
+      </c>
+      <c r="X6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35">
+        <v>100</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="24">
+        <v>0</v>
+      </c>
+      <c r="X7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" s="39"/>
+      <c r="N8" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="U8" s="40"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="24">
+        <v>0</v>
+      </c>
+      <c r="X8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="49">
+        <v>76</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" s="46"/>
+      <c r="N9" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="O9" s="46"/>
+      <c r="P9" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="U9" s="56"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="X9" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="22" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="U10" s="40"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+    </row>
+    <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36">
+        <v>100</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+    </row>
+    <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-    </row>
-    <row r="3" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32">
-        <v>100</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="I12" s="35"/>
+      <c r="J12" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="X12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="X13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="23">
+        <v>300</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="40">
+      <c r="E14" s="35"/>
+      <c r="F14" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="24">
         <v>0.03</v>
       </c>
-      <c r="X3" s="40">
+      <c r="X14" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="40">
-        <v>0</v>
-      </c>
-      <c r="X4" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32">
-        <v>100</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="40">
-        <v>0</v>
-      </c>
-      <c r="X5" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="40">
-        <v>0</v>
-      </c>
-      <c r="X6" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31">
-        <v>100</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="40">
-        <v>0</v>
-      </c>
-      <c r="X7" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="U8" s="45"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="40">
-        <v>0</v>
-      </c>
-      <c r="X8" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32">
-        <v>100</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-    </row>
-    <row r="10" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="40">
-        <v>0.04</v>
-      </c>
-      <c r="X10" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="40">
-        <v>0.04</v>
-      </c>
-      <c r="X11" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="36">
-        <v>300</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="40">
-        <v>0.03</v>
-      </c>
-      <c r="X12" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D13" s="46"/>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D15" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="A9:B12"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
+  <mergeCells count="110">
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="N9:O10"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:V11"/>
     <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="F9:O9"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T2:V2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="J7:K7"/>
@@ -4948,24 +5158,69 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T2:V2"/>
     <mergeCell ref="T3:V3"/>
-    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A11:B14"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
